--- a/Tomoru/Создание Резюме/Positive_Test_Suites.xlsx
+++ b/Tomoru/Создание Резюме/Positive_Test_Suites.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\night\git\portfolio\Tomoru\Regress\Профиль\Создание Резюме\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\night\git\portfolio\Test-Suites-and-Test-Cases\Tomoru\Создание Резюме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10B1C032-8F29-4345-A4F7-F8F8DAE71BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82503DFD-509C-4AB8-BAB9-3B61555D4858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="720" windowWidth="11712" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>При заполнении блока "Подробности" все работает корректно</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Данный кейс проверяет основную бизнес-логику продукта</t>
+  </si>
+  <si>
+    <t>Данный кейс проверяет самую важную часть в модуле "Создание резюме"</t>
+  </si>
+  <si>
+    <t>Возникновение багов не приведет к блокировке создания резюме, но сильно отразится на репутации продукта</t>
   </si>
 </sst>
 </file>
@@ -171,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -222,11 +234,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -242,6 +267,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,10 +575,11 @@
     <col min="8" max="8" width="42.5546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,65 +610,76 @@
       <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="291" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+    <row r="3" spans="1:11" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5"/>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="8" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:11" ht="241.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="4"/>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:11" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <f t="shared" ref="A5:A6" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -647,21 +693,25 @@
         <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J5" s="4"/>
+      <c r="K5" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="122.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:11" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -675,18 +725,21 @@
         <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J6" s="4"/>
+      <c r="K6" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
